--- a/Laboratory/Tasks/Task_1/result_1.xlsx
+++ b/Laboratory/Tasks/Task_1/result_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +426,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J1" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K1" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L1" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M1" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N1" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O1" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P1" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R1" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S1" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T1" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U1" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V1" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W1" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="2">
@@ -434,7 +497,70 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="3">
@@ -442,7 +568,70 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -450,7 +639,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -458,7 +710,70 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +781,70 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -474,7 +852,70 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>0.098</v>
+        <v>0.98</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="8">
@@ -482,7 +923,70 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="9">
@@ -490,7 +994,70 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="10">
@@ -498,7 +1065,70 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>0.102</v>
+        <v>1.02</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="11">
@@ -506,7 +1136,70 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0.098</v>
+        <v>0.98</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +1207,70 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +1278,70 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="14">
@@ -530,7 +1349,70 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.098</v>
+        <v>0.98</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="15">
@@ -538,7 +1420,70 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="16">
@@ -546,7 +1491,70 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0.102</v>
+        <v>1.02</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="17">
@@ -554,7 +1562,70 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>0.102</v>
+        <v>1.02</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +1633,70 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="19">
@@ -570,7 +1704,70 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="20">
@@ -578,7 +1775,70 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>0.102</v>
+        <v>1.02</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -586,7 +1846,70 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="22">
@@ -594,7 +1917,70 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -602,7 +1988,70 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="24">
@@ -610,7 +2059,70 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="25">
@@ -618,7 +2130,70 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="26">
@@ -626,7 +2201,70 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="27">
@@ -634,7 +2272,70 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>0.102</v>
+        <v>1.02</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="28">
@@ -642,7 +2343,70 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>0.098</v>
+        <v>0.98</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="29">
@@ -650,7 +2414,70 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="30">
@@ -658,7 +2485,70 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +2556,70 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>0.102</v>
+        <v>1.02</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="32">
@@ -674,7 +2627,70 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>0.098</v>
+        <v>0.98</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="33">
@@ -682,7 +2698,70 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>0.098</v>
+        <v>0.98</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="34">
@@ -690,7 +2769,70 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>0.098</v>
+        <v>0.98</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="35">
@@ -698,7 +2840,70 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>0.098</v>
+        <v>0.98</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="36">
@@ -706,7 +2911,70 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="37">
@@ -714,7 +2982,70 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>0.098</v>
+        <v>0.98</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="38">
@@ -722,7 +3053,70 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -730,7 +3124,70 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="40">
@@ -738,7 +3195,70 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>0.102</v>
+        <v>1.02</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="41">
@@ -746,7 +3266,70 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>0.098</v>
+        <v>0.98</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="42">
@@ -754,7 +3337,70 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="43">
@@ -762,7 +3408,70 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="44">
@@ -770,7 +3479,70 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="45">
@@ -778,7 +3550,70 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115</v>
+        <v>1.15</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="46">
@@ -786,7 +3621,70 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="47">
@@ -794,7 +3692,70 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="48">
@@ -802,7 +3763,70 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0.102</v>
+        <v>1.02</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -810,7 +3834,70 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>0.098</v>
+        <v>0.98</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="50">
@@ -818,7 +3905,70 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>

--- a/Laboratory/Tasks/Task_1/result_1.xlsx
+++ b/Laboratory/Tasks/Task_1/result_1.xlsx
@@ -426,70 +426,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C1" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D1" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E1" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F1" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="G1" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H1" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I1" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J1" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="K1" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L1" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="M1" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N1" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O1" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P1" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R1" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S1" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T1" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U1" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V1" t="n">
-        <v>1.18</v>
+        <v>0.118</v>
       </c>
       <c r="W1" t="n">
-        <v>1.17</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="2">
@@ -497,70 +497,70 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C2" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D2" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E2" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F2" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="G2" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H2" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="K2" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="M2" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N2" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P2" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S2" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T2" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U2" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W2" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="3">
@@ -568,70 +568,70 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C3" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D3" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E3" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F3" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="G3" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H3" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I3" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J3" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="K3" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="M3" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N3" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P3" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S3" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T3" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U3" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>0.118</v>
       </c>
       <c r="W3" t="n">
-        <v>1.17</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="4">
@@ -639,70 +639,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C4" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D4" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E4" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F4" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="G4" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H4" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K4" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="M4" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N4" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P4" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S4" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T4" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U4" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>0.118</v>
       </c>
       <c r="W4" t="n">
-        <v>1.17</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="5">
@@ -710,70 +710,70 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C5" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D5" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E5" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F5" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="G5" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H5" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I5" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="K5" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N5" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P5" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R5" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S5" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T5" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U5" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W5" t="n">
-        <v>1.17</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="6">
@@ -781,70 +781,70 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C6" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D6" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E6" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F6" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G6" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H6" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I6" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J6" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K6" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L6" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M6" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N6" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P6" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R6" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S6" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T6" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U6" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W6" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="7">
@@ -852,70 +852,70 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C7" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D7" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E7" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F7" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G7" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H7" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K7" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L7" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M7" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N7" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P7" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S7" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T7" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U7" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W7" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="8">
@@ -923,70 +923,70 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C8" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="D8" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
       <c r="E8" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="G8" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H8" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I8" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K8" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N8" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P8" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S8" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T8" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U8" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="W8" t="n">
-        <v>1.17</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="9">
@@ -994,70 +994,70 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C9" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D9" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E9" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F9" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G9" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H9" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I9" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K9" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L9" t="n">
-        <v>1.14</v>
+        <v>0.114</v>
       </c>
       <c r="M9" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N9" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P9" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R9" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S9" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T9" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U9" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V9" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="W9" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="10">
@@ -1065,70 +1065,70 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="C10" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="D10" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E10" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="F10" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="G10" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H10" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I10" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="K10" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="M10" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N10" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P10" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S10" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T10" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U10" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V10" t="n">
-        <v>1.18</v>
+        <v>0.118</v>
       </c>
       <c r="W10" t="n">
-        <v>1.17</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="11">
@@ -1136,70 +1136,70 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C11" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D11" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E11" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F11" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G11" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H11" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I11" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="K11" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L11" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M11" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N11" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P11" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S11" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T11" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U11" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W11" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="12">
@@ -1207,70 +1207,70 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C12" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="D12" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E12" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F12" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G12" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H12" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="I12" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J12" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K12" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="L12" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="M12" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N12" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P12" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R12" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S12" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T12" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U12" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>0.118</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -1278,70 +1278,70 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C13" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D13" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E13" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G13" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H13" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I13" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J13" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K13" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L13" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M13" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N13" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P13" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S13" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T13" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U13" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V13" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W13" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="14">
@@ -1349,70 +1349,70 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C14" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D14" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E14" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F14" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G14" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H14" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I14" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K14" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L14" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M14" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N14" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P14" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R14" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S14" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T14" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U14" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W14" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="15">
@@ -1420,70 +1420,70 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C15" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D15" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E15" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F15" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G15" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H15" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I15" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J15" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K15" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L15" t="n">
-        <v>1.14</v>
+        <v>0.114</v>
       </c>
       <c r="M15" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N15" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P15" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R15" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S15" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T15" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U15" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W15" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="16">
@@ -1491,70 +1491,70 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="C16" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D16" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E16" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F16" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G16" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H16" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I16" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J16" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="K16" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L16" t="n">
-        <v>1.14</v>
+        <v>0.114</v>
       </c>
       <c r="M16" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N16" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P16" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R16" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S16" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T16" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U16" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V16" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W16" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="17">
@@ -1562,70 +1562,70 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="C17" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D17" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E17" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F17" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G17" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H17" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I17" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J17" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K17" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L17" t="n">
-        <v>1.14</v>
+        <v>0.114</v>
       </c>
       <c r="M17" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N17" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P17" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R17" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S17" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T17" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U17" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V17" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="W17" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="18">
@@ -1633,70 +1633,70 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C18" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D18" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E18" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F18" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G18" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H18" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I18" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J18" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K18" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L18" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M18" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N18" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P18" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R18" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S18" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T18" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U18" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V18" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W18" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="19">
@@ -1704,70 +1704,70 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C19" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D19" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E19" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F19" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G19" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H19" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I19" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J19" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K19" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L19" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M19" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N19" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P19" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R19" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S19" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T19" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U19" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V19" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W19" t="n">
-        <v>1.09</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="20">
@@ -1775,70 +1775,70 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="C20" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="D20" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E20" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F20" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G20" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H20" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="I20" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J20" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="K20" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="L20" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="M20" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N20" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P20" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R20" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S20" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T20" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U20" t="n">
-        <v>1.17</v>
+        <v>0.117</v>
       </c>
       <c r="V20" t="n">
-        <v>1.18</v>
+        <v>0.118</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -1846,70 +1846,70 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C21" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D21" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E21" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F21" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G21" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H21" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I21" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J21" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K21" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L21" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M21" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N21" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P21" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R21" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S21" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T21" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U21" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V21" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W21" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="22">
@@ -1917,70 +1917,70 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C22" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D22" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E22" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F22" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G22" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H22" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="I22" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J22" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="K22" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="L22" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="M22" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N22" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P22" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R22" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S22" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T22" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U22" t="n">
-        <v>1.17</v>
+        <v>0.117</v>
       </c>
       <c r="V22" t="n">
-        <v>1.18</v>
+        <v>0.118</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23">
@@ -1988,70 +1988,70 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C23" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D23" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E23" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F23" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G23" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H23" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I23" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J23" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K23" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L23" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M23" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N23" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P23" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R23" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S23" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T23" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U23" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V23" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W23" t="n">
-        <v>1.09</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="24">
@@ -2059,70 +2059,70 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C24" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D24" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E24" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F24" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G24" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H24" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I24" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J24" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
       <c r="K24" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L24" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M24" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N24" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P24" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R24" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S24" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T24" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U24" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V24" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W24" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="25">
@@ -2130,70 +2130,70 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C25" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D25" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E25" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F25" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G25" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H25" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I25" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J25" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
       <c r="K25" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L25" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M25" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N25" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P25" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R25" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S25" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T25" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U25" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V25" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W25" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="26">
@@ -2201,70 +2201,70 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C26" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D26" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E26" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F26" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G26" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H26" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I26" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J26" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
       <c r="K26" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L26" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M26" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N26" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P26" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R26" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S26" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T26" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U26" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V26" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W26" t="n">
-        <v>1.09</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="27">
@@ -2272,70 +2272,70 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="C27" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D27" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E27" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F27" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G27" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H27" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I27" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J27" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K27" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L27" t="n">
-        <v>1.14</v>
+        <v>0.114</v>
       </c>
       <c r="M27" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N27" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="O27" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P27" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S27" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T27" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U27" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V27" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="W27" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="28">
@@ -2343,70 +2343,70 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C28" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D28" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E28" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F28" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G28" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H28" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I28" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J28" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K28" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L28" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M28" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N28" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O28" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P28" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R28" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S28" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T28" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U28" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V28" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W28" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="29">
@@ -2414,70 +2414,70 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C29" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D29" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E29" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F29" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G29" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H29" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I29" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
       <c r="K29" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L29" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M29" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N29" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O29" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P29" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R29" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S29" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T29" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U29" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V29" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W29" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="30">
@@ -2485,70 +2485,70 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C30" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="D30" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E30" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="F30" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="G30" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H30" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="I30" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J30" t="n">
-        <v>1.04</v>
+        <v>0.104</v>
       </c>
       <c r="K30" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="N30" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O30" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P30" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R30" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S30" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="U30" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V30" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W30" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="31">
@@ -2556,70 +2556,70 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="C31" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D31" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E31" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F31" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G31" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H31" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I31" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J31" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K31" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L31" t="n">
-        <v>1.14</v>
+        <v>0.114</v>
       </c>
       <c r="M31" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N31" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="O31" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P31" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R31" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S31" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T31" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U31" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V31" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="W31" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="32">
@@ -2627,70 +2627,70 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C32" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D32" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E32" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F32" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G32" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H32" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I32" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J32" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K32" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L32" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M32" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N32" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P32" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R32" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S32" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T32" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U32" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V32" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W32" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="33">
@@ -2698,70 +2698,70 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C33" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D33" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E33" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F33" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G33" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H33" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I33" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J33" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="K33" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L33" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M33" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N33" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O33" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P33" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R33" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S33" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T33" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U33" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V33" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W33" t="n">
-        <v>1.09</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="34">
@@ -2769,70 +2769,70 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C34" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D34" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E34" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F34" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G34" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H34" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I34" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J34" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K34" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L34" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M34" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N34" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O34" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P34" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R34" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S34" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T34" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U34" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V34" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W34" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="35">
@@ -2840,70 +2840,70 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C35" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D35" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E35" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F35" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G35" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H35" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I35" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J35" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K35" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L35" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M35" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N35" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O35" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P35" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R35" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S35" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T35" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U35" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V35" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W35" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="36">
@@ -2911,70 +2911,70 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C36" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D36" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E36" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F36" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G36" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H36" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I36" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J36" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K36" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L36" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M36" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N36" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O36" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P36" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R36" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S36" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T36" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U36" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V36" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W36" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="37">
@@ -2982,70 +2982,70 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C37" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D37" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E37" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F37" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G37" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H37" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I37" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J37" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K37" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L37" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M37" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N37" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P37" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R37" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S37" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T37" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U37" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V37" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W37" t="n">
-        <v>1.09</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="38">
@@ -3053,70 +3053,70 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C38" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="D38" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E38" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F38" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G38" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H38" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="I38" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J38" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K38" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="L38" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="M38" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N38" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O38" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P38" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R38" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S38" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T38" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U38" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V38" t="n">
-        <v>1.18</v>
+        <v>0.118</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -3124,70 +3124,70 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C39" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="D39" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
       <c r="E39" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="F39" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="G39" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H39" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I39" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J39" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K39" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="M39" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N39" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O39" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P39" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R39" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S39" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T39" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U39" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V39" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="W39" t="n">
-        <v>1.17</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="40">
@@ -3195,70 +3195,70 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="C40" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D40" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E40" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F40" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G40" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H40" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I40" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J40" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K40" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L40" t="n">
-        <v>1.14</v>
+        <v>0.114</v>
       </c>
       <c r="M40" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N40" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="O40" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P40" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R40" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S40" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T40" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U40" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V40" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W40" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="41">
@@ -3266,70 +3266,70 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C41" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D41" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E41" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F41" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G41" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H41" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I41" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J41" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K41" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L41" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M41" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N41" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O41" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P41" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R41" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S41" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T41" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U41" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V41" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W41" t="n">
-        <v>1.09</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="42">
@@ -3337,70 +3337,70 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C42" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D42" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E42" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F42" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G42" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H42" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I42" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J42" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
       <c r="K42" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L42" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M42" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N42" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O42" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P42" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R42" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S42" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T42" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U42" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V42" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W42" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="43">
@@ -3408,70 +3408,70 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C43" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D43" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E43" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F43" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G43" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H43" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I43" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="K43" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L43" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M43" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N43" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O43" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P43" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R43" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S43" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T43" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U43" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V43" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W43" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="44">
@@ -3479,70 +3479,70 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C44" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D44" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E44" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F44" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G44" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H44" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I44" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J44" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="K44" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L44" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M44" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N44" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O44" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P44" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R44" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S44" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T44" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U44" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V44" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W44" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="45">
@@ -3550,70 +3550,70 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="C45" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="D45" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
       <c r="E45" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="F45" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="G45" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H45" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I45" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J45" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="K45" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="M45" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N45" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O45" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P45" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R45" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S45" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T45" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U45" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V45" t="n">
-        <v>1.18</v>
+        <v>0.118</v>
       </c>
       <c r="W45" t="n">
-        <v>1.17</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="46">
@@ -3621,70 +3621,70 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C46" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D46" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E46" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F46" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G46" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H46" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I46" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J46" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K46" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L46" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M46" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N46" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O46" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P46" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R46" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S46" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T46" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U46" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V46" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="W46" t="n">
-        <v>1.09</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="47">
@@ -3692,70 +3692,70 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C47" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D47" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="E47" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F47" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G47" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H47" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I47" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J47" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K47" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L47" t="n">
-        <v>1.14</v>
+        <v>0.114</v>
       </c>
       <c r="M47" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N47" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P47" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R47" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S47" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T47" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U47" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V47" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W47" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="48">
@@ -3763,70 +3763,70 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="C48" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="D48" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E48" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F48" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="G48" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H48" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="I48" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="J48" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="K48" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="L48" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="M48" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N48" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O48" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P48" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R48" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S48" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T48" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U48" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="V48" t="n">
-        <v>1.18</v>
+        <v>0.118</v>
       </c>
       <c r="W48" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49">
@@ -3834,70 +3834,70 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C49" t="n">
-        <v>1.21</v>
+        <v>0.121</v>
       </c>
       <c r="D49" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="E49" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="F49" t="n">
-        <v>1.08</v>
+        <v>0.108</v>
       </c>
       <c r="G49" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H49" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="I49" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J49" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="K49" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="L49" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="M49" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="N49" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O49" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P49" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R49" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S49" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T49" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="U49" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V49" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W49" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="50">
@@ -3905,70 +3905,70 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C50" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="D50" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E50" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="F50" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="G50" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="H50" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="I50" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="J50" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="K50" t="n">
-        <v>1.16</v>
+        <v>0.116</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="M50" t="n">
-        <v>1.02</v>
+        <v>0.102</v>
       </c>
       <c r="N50" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="O50" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="P50" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.12</v>
+        <v>0.112</v>
       </c>
       <c r="R50" t="n">
-        <v>1.19</v>
+        <v>0.119</v>
       </c>
       <c r="S50" t="n">
-        <v>1.11</v>
+        <v>0.111</v>
       </c>
       <c r="T50" t="n">
-        <v>1.01</v>
+        <v>0.101</v>
       </c>
       <c r="U50" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="V50" t="n">
-        <v>1.15</v>
+        <v>0.115</v>
       </c>
       <c r="W50" t="n">
-        <v>1.03</v>
+        <v>0.103</v>
       </c>
     </row>
   </sheetData>
